--- a/Steel Plate Defect Prediction/report-classification-task.xlsx
+++ b/Steel Plate Defect Prediction/report-classification-task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darab Store\Desktop\ML-projects\Git-Hub\PlayGround-Competition\Steel Plate Defect Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darab Store\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C3B8C9D-2354-4096-979D-66175B7414E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E6ACC1-1729-4537-B025-B25B9A3393D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,49 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>without outlier</t>
+  </si>
+  <si>
+    <t>normalize</t>
+  </si>
+  <si>
+    <t>without normalize</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>minmax</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Roc</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
   <si>
     <t>Exp1</t>
   </si>
   <si>
-    <t>feature engineering</t>
-  </si>
-  <si>
-    <t>outlier detection</t>
-  </si>
-  <si>
-    <t>MinMaxScalar</t>
-  </si>
-  <si>
-    <t>Standardization</t>
-  </si>
-  <si>
     <t>Exp2</t>
   </si>
   <si>
     <t>Exp3</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>Balanced accuracy</t>
-  </si>
-  <si>
-    <t>Roc</t>
-  </si>
-  <si>
-    <t>F1-score</t>
-  </si>
-  <si>
     <t>Exp4</t>
+  </si>
+  <si>
+    <t>Exp5</t>
+  </si>
+  <si>
+    <t>Exp6</t>
+  </si>
+  <si>
+    <t>Exp7</t>
+  </si>
+  <si>
+    <t>Exp8</t>
+  </si>
+  <si>
+    <t>Exp9</t>
+  </si>
+  <si>
+    <t>Exp10</t>
+  </si>
+  <si>
+    <t>Exp11</t>
+  </si>
+  <si>
+    <t>Exp12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,33 +112,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Gill Sans MT"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,72 +174,60 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,62 +509,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -541,298 +565,240 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="N5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
+  <mergeCells count="31">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Steel Plate Defect Prediction/report-classification-task.xlsx
+++ b/Steel Plate Defect Prediction/report-classification-task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darab Store\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darab Store\Desktop\ML-projects\Git-Hub\PlayGround-Competition\Steel Plate Defect Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E6ACC1-1729-4537-B025-B25B9A3393D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED133EE-AADD-445F-985B-FE9B414B33D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Roc</t>
-  </si>
-  <si>
     <t>F1-score</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Exp12</t>
+  </si>
+  <si>
+    <t>Roc_auc</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,25 +214,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +527,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,259 +537,276 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="2">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="7"/>
+      <c r="N9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="L9:M9"/>
@@ -784,6 +816,13 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="D4:E5"/>
